--- a/OpenMRS_DDT/Data.xlsx
+++ b/OpenMRS_DDT/Data.xlsx
@@ -431,7 +431,7 @@
       <selection activeCell="$A$1" sqref="$A$1:$B$6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.05859375" customWidth="1"/>
     <col min="2" max="2" width="11.0625" customWidth="1"/>
@@ -501,11 +501,11 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection activeCell="$B$7" sqref="$B$7:$B$7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.59765625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
